--- a/02-PROJETOS/caminho.xlsx
+++ b/02-PROJETOS/caminho.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guto\Documents\Carlos\SENAI-2024-3DES\02-PROJETOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desenvolvimento\Documents\Carlos\senai\SENAI-2024-3DES\02-PROJETOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BFD50267-3557-4126-8800-979FF9D03C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A1CE8A6-9E28-4177-BF78-65E6F1CA7843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{F5DE8679-7197-46EF-8F92-79F9D9B6BB32}"/>
   </bookViews>
@@ -201,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -215,8 +215,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -554,7 +555,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -562,23 +563,23 @@
     <col min="1" max="1" width="36.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="19" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>27</v>
       </c>
     </row>
@@ -592,7 +593,7 @@
       <c r="C2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="4"/>
+      <c r="D2" s="7"/>
       <c r="E2" s="3">
         <v>7</v>
       </c>
@@ -607,7 +608,7 @@
       <c r="C3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="D3" s="7"/>
       <c r="E3" s="3">
         <v>14</v>
       </c>
